--- a/PersonalNutrition_Test_Cases.xlsx
+++ b/PersonalNutrition_Test_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7036f514180ac6b9/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{84BFFCC9-7D3B-4AD7-A851-14B42027B307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1813DF85-6023-4032-A834-8B8B4F8AA63C}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{84BFFCC9-7D3B-4AD7-A851-14B42027B307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7680D48-442E-443E-991B-7CB1C25FBAF2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,6 +774,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="47.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2353,8 +2357,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I31" xr:uid="{D4FDC336-EB36-4333-AB6F-ED012FC59FFC}">
+      <formula1>$I$2:$I$31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J31" xr:uid="{A47DEF31-2EF7-4F2B-8866-19C45E366190}">
+      <formula1>$J$2:$J$31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K31" xr:uid="{00EE519D-418D-4A34-A14D-69D93941D446}">
+      <formula1>$K$2:$K$31</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L31" xr:uid="{9177EF6C-D3CD-460C-84CF-DBA16C241666}">
+      <formula1>$L$2:$L$31</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>